--- a/src/test/resources/ProcurementHL.xlsx
+++ b/src/test/resources/ProcurementHL.xlsx
@@ -1519,7 +1519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1652,12 +1652,6 @@
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Courier New"/>
@@ -1772,7 +1766,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1794,19 +1788,16 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="20">
@@ -2085,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2212,7 +2203,7 @@
       <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AD1" s="31" t="s">
         <v>477</v>
       </c>
     </row>
@@ -2232,16 +2223,16 @@
       <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="27">
         <v>9350003040</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="27" t="s">
         <v>467</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -2324,16 +2315,16 @@
       <c r="E3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="27">
         <v>9350003040</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="27" t="s">
         <v>469</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -2416,16 +2407,16 @@
       <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="27">
         <v>9350003040</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="27" t="s">
         <v>471</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -2508,16 +2499,16 @@
       <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="27">
         <v>9350003040</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="27" t="s">
         <v>473</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -2600,16 +2591,16 @@
       <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="27">
         <v>9350003040</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="27" t="s">
         <v>475</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -2675,22 +2666,6 @@
       <c r="AD6">
         <v>123456</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="F8" s="24"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="F9"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="F10"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="F11"/>
-      <c r="G11" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2827,7 +2802,7 @@
       <c r="J3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="23" t="s">
         <v>439</v>
       </c>
     </row>
@@ -7836,10 +7811,10 @@
       </c>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="28"/>
-      <c r="B204" s="28"/>
-      <c r="C204" s="29"/>
-      <c r="D204" s="29"/>
+      <c r="A204" s="25"/>
+      <c r="B204" s="25"/>
+      <c r="C204" s="26"/>
+      <c r="D204" s="26"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4" t="s">
@@ -8184,7 +8159,7 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="32" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="29" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" style="9" customWidth="1"/>
@@ -8294,7 +8269,7 @@
       <c r="AB1" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AC1" s="31" t="s">
         <v>478</v>
       </c>
     </row>
@@ -8302,7 +8277,7 @@
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="28">
         <v>12345</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -8374,13 +8349,13 @@
       <c r="Y2" s="5">
         <v>250000</v>
       </c>
-      <c r="Z2" s="22" t="s">
+      <c r="Z2" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="AA2" s="23">
+      <c r="AA2" s="22">
         <v>455700</v>
       </c>
-      <c r="AB2" s="23">
+      <c r="AB2" s="22">
         <v>55000</v>
       </c>
       <c r="AC2" t="s">
@@ -8391,7 +8366,7 @@
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="28">
         <v>12345</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -8463,13 +8438,13 @@
       <c r="Y3" s="5">
         <v>580000</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="Z3" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="AA3" s="23">
+      <c r="AA3" s="22">
         <v>455700</v>
       </c>
-      <c r="AB3" s="23">
+      <c r="AB3" s="22">
         <v>58800</v>
       </c>
       <c r="AC3" t="s">
@@ -8480,7 +8455,7 @@
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="28">
         <v>12345</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -8552,13 +8527,13 @@
       <c r="Y4" s="5">
         <v>170500</v>
       </c>
-      <c r="Z4" s="22" t="s">
+      <c r="Z4" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="AA4" s="23">
+      <c r="AA4" s="22">
         <v>455700</v>
       </c>
-      <c r="AB4" s="23">
+      <c r="AB4" s="22">
         <v>50000</v>
       </c>
       <c r="AC4" t="s">
@@ -8569,7 +8544,7 @@
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="28">
         <v>12345</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -8641,13 +8616,13 @@
       <c r="Y5" s="5">
         <v>155000</v>
       </c>
-      <c r="Z5" s="22" t="s">
+      <c r="Z5" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="AA5" s="23">
+      <c r="AA5" s="22">
         <v>548057</v>
       </c>
-      <c r="AB5" s="23">
+      <c r="AB5" s="22">
         <v>85438</v>
       </c>
       <c r="AC5" t="s">
@@ -8658,7 +8633,7 @@
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="28">
         <v>12345</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -8730,13 +8705,13 @@
       <c r="Y6" s="5">
         <v>92000</v>
       </c>
-      <c r="Z6" s="22" t="s">
+      <c r="Z6" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="AA6" s="23">
+      <c r="AA6" s="22">
         <v>653947</v>
       </c>
-      <c r="AB6" s="23">
+      <c r="AB6" s="22">
         <v>76438</v>
       </c>
       <c r="AC6" t="s">
@@ -8776,7 +8751,7 @@
       <c r="A1" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8789,10 +8764,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5">
-      <c r="A3" s="26"/>
+      <c r="A3" s="24"/>
     </row>
     <row r="4" spans="1:2" ht="16.5">
-      <c r="A4" s="26"/>
+      <c r="A4" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8861,7 +8836,7 @@
       <c r="A2" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>429</v>
       </c>
       <c r="C2" s="13"/>
@@ -8891,7 +8866,7 @@
       <c r="A3" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>429</v>
       </c>
       <c r="C3" s="13"/>
@@ -8921,7 +8896,7 @@
       <c r="A4" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>429</v>
       </c>
       <c r="C4" s="13"/>
@@ -8951,7 +8926,7 @@
       <c r="A5" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>429</v>
       </c>
       <c r="C5" s="13"/>
@@ -8981,7 +8956,7 @@
       <c r="A6" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>429</v>
       </c>
       <c r="C6" s="13"/>
